--- a/public/downloads/TESTED-FP-RAW.xlsx
+++ b/public/downloads/TESTED-FP-RAW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/2023 NEW RECORDS TEMPLATE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1213" documentId="8_{406763AE-22C8-4994-A1E8-52D3B1C82B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA118870-FF55-4A9D-BC3D-8BAEBF12F9EF}"/>
+  <xr:revisionPtr revIDLastSave="1221" documentId="8_{406763AE-22C8-4994-A1E8-52D3B1C82B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3739C74B-B3D5-41C5-88F1-07F717B4FE4D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="5" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
   </bookViews>
   <sheets>
     <sheet name="MEN OPEN" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="198">
   <si>
     <t>Weight</t>
   </si>
@@ -175,9 +175,6 @@
     <t>55.0KG</t>
   </si>
   <si>
-    <t>135.0KG</t>
-  </si>
-  <si>
     <t>145.0KG</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
     <t>52.5KG</t>
   </si>
   <si>
-    <t>280.0KG</t>
-  </si>
-  <si>
     <t>110+ KG</t>
   </si>
   <si>
@@ -623,6 +617,24 @@
   </si>
   <si>
     <t>87.5KG</t>
+  </si>
+  <si>
+    <t>WOMEN OF IRON</t>
+  </si>
+  <si>
+    <t>141.0KG</t>
+  </si>
+  <si>
+    <t>286.0KG</t>
+  </si>
+  <si>
+    <t>VIOLET THRALL</t>
+  </si>
+  <si>
+    <t>27/08/2W023</t>
+  </si>
+  <si>
+    <t>135.5KG</t>
   </si>
 </sst>
 </file>
@@ -1310,16 +1322,16 @@
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23" s="13">
         <v>44962</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1329,16 +1341,16 @@
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E24" s="13">
         <v>44962</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1348,16 +1360,16 @@
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25" s="13">
         <v>44962</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1367,16 +1379,16 @@
         <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E26" s="13">
         <v>44962</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1397,16 +1409,16 @@
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E28" s="13">
         <v>45010</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1416,16 +1428,16 @@
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E29" s="13">
         <v>45010</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1435,7 +1447,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E30" s="13">
         <v>45024</v>
@@ -1454,16 +1466,16 @@
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E31" s="13">
         <v>45010</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1484,16 +1496,16 @@
         <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E33" s="13">
         <v>44962</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -1514,16 +1526,16 @@
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E35" s="13">
         <v>45024</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -1720,16 +1732,16 @@
         <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E53" s="13">
         <v>44877</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -1739,16 +1751,16 @@
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E54" s="13">
         <v>44877</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -1758,16 +1770,16 @@
         <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E55" s="13">
         <v>44877</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -1777,16 +1789,16 @@
         <v>7</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E56" s="13">
         <v>44877</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -1807,11 +1819,11 @@
         <v>4</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>39</v>
@@ -1824,12 +1836,12 @@
         <v>5</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -1839,12 +1851,12 @@
         <v>6</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -1854,12 +1866,12 @@
         <v>7</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -2731,16 +2743,16 @@
         <v>4</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E29" s="12">
         <v>44962</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -2750,16 +2762,16 @@
         <v>5</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E30" s="12">
         <v>44962</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -2769,16 +2781,16 @@
         <v>6</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E31" s="12">
         <v>44962</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -2788,16 +2800,16 @@
         <v>7</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E32" s="12">
         <v>44962</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -2817,16 +2829,16 @@
         <v>4</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E34" s="12">
         <v>44808</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2836,16 +2848,16 @@
         <v>5</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E35" s="12">
         <v>44808</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2855,13 +2867,13 @@
         <v>6</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E36" s="12">
         <v>44808</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>42</v>
@@ -2874,16 +2886,16 @@
         <v>7</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E37" s="12">
         <v>44808</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -2903,7 +2915,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E39" s="12">
         <v>44695</v>
@@ -2912,7 +2924,7 @@
         <v>38</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -2922,7 +2934,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E40" s="12">
         <v>44695</v>
@@ -2931,7 +2943,7 @@
         <v>38</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -2941,7 +2953,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E41" s="12">
         <v>44695</v>
@@ -2950,7 +2962,7 @@
         <v>38</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2960,7 +2972,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E42" s="12">
         <v>44695</v>
@@ -3036,16 +3048,16 @@
         <v>4</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E49" s="11">
         <v>45010</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -3055,16 +3067,16 @@
         <v>5</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E50" s="11">
         <v>45010</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -3074,16 +3086,16 @@
         <v>6</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E51" s="11">
         <v>45010</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -3093,16 +3105,16 @@
         <v>7</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E52" s="11">
         <v>45010</v>
       </c>
       <c r="F52" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -3145,16 +3157,16 @@
         <v>4</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E59" s="11">
         <v>44877</v>
       </c>
       <c r="F59" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -3163,7 +3175,7 @@
       </c>
       <c r="E60" s="11"/>
       <c r="G60" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -3172,7 +3184,7 @@
       </c>
       <c r="E61" s="11"/>
       <c r="G61" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -3181,7 +3193,7 @@
       </c>
       <c r="E62" s="11"/>
       <c r="G62" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3207,7 +3219,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -3592,7 +3604,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E53" s="11">
         <v>44695</v>
@@ -3601,7 +3613,7 @@
         <v>40</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -3611,7 +3623,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E54" s="11">
         <v>44695</v>
@@ -3620,7 +3632,7 @@
         <v>40</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -3630,7 +3642,7 @@
         <v>6</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E55" s="11">
         <v>44695</v>
@@ -3639,7 +3651,7 @@
         <v>40</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -3649,7 +3661,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E56" s="11">
         <v>44695</v>
@@ -3658,7 +3670,7 @@
         <v>40</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -3704,7 +3716,7 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="1"/>
     </row>
@@ -4147,7 +4159,7 @@
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C124" s="1"/>
     </row>
@@ -4344,16 +4356,16 @@
         <v>4</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E151" s="11">
         <v>44962</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
@@ -4363,16 +4375,16 @@
         <v>5</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E152" s="11">
         <v>44962</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
@@ -4382,16 +4394,16 @@
         <v>6</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E153" s="11">
         <v>44962</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
@@ -4401,16 +4413,16 @@
         <v>7</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E154" s="11">
         <v>44962</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
@@ -4427,16 +4439,16 @@
         <v>4</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E156" s="11">
         <v>44695</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
@@ -4446,16 +4458,16 @@
         <v>5</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E157" s="11">
         <v>44695</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
@@ -4465,16 +4477,16 @@
         <v>6</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E158" s="11">
         <v>44695</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
@@ -4484,16 +4496,16 @@
         <v>7</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E159" s="11">
         <v>44695</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
@@ -4545,16 +4557,16 @@
         <v>4</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E166" s="11">
         <v>44695</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
@@ -4564,16 +4576,16 @@
         <v>5</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E167" s="11">
         <v>44695</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
@@ -4583,16 +4595,16 @@
         <v>6</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E168" s="11">
         <v>44695</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
@@ -4602,16 +4614,16 @@
         <v>7</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E169" s="11">
         <v>44695</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
@@ -4663,7 +4675,7 @@
         <v>4</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E176" s="11">
         <v>44695</v>
@@ -4672,7 +4684,7 @@
         <v>38</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
@@ -4682,7 +4694,7 @@
         <v>5</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E177" s="11">
         <v>44695</v>
@@ -4691,7 +4703,7 @@
         <v>38</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
@@ -4701,7 +4713,7 @@
         <v>6</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E178" s="11">
         <v>44695</v>
@@ -4710,7 +4722,7 @@
         <v>38</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
@@ -4720,7 +4732,7 @@
         <v>7</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E179" s="11">
         <v>44695</v>
@@ -4729,7 +4741,7 @@
         <v>38</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
@@ -4775,7 +4787,7 @@
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C186" s="1"/>
     </row>
@@ -5147,16 +5159,16 @@
         <v>4</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E238" s="11">
         <v>44962</v>
       </c>
       <c r="F238" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G238" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
@@ -5166,16 +5178,16 @@
         <v>5</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E239" s="11">
         <v>44962</v>
       </c>
       <c r="F239" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G239" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
@@ -5185,13 +5197,13 @@
         <v>6</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E240" s="11">
         <v>44962</v>
       </c>
       <c r="F240" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G240" s="9" t="s">
         <v>41</v>
@@ -5204,16 +5216,16 @@
         <v>7</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E241" s="11">
         <v>44962</v>
       </c>
       <c r="F241" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G241" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
@@ -5259,7 +5271,7 @@
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="2"/>
       <c r="B248" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C248" s="1"/>
     </row>
@@ -5695,7 +5707,7 @@
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" s="2"/>
       <c r="B310" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C310" s="1"/>
     </row>
@@ -6131,7 +6143,7 @@
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" s="2"/>
       <c r="B372" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C372" s="1"/>
     </row>
@@ -6567,7 +6579,7 @@
     <row r="434" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A434" s="2"/>
       <c r="B434" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C434" s="1"/>
     </row>
@@ -6998,7 +7010,7 @@
     <row r="495" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A495" s="2"/>
       <c r="B495" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C495" s="1"/>
     </row>
@@ -7452,7 +7464,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -7610,7 +7622,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E20" s="11">
         <v>45024</v>
@@ -7619,7 +7631,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -7879,7 +7891,7 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C53" s="1"/>
     </row>
@@ -7982,16 +7994,16 @@
         <v>4</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E65" s="11">
         <v>44962</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -8009,16 +8021,16 @@
         <v>6</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E67" s="11">
         <v>44836</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -8222,16 +8234,16 @@
         <v>6</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E92" s="11">
         <v>44962</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -8257,16 +8269,16 @@
         <v>4</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E95" s="11">
         <v>44660</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -8276,16 +8288,16 @@
         <v>5</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E96" s="11">
         <v>44660</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -8295,16 +8307,16 @@
         <v>6</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E97" s="11">
         <v>44660</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -8314,16 +8326,16 @@
         <v>7</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E98" s="11">
         <v>44660</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -8419,7 +8431,7 @@
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>4</v>
@@ -8460,7 +8472,7 @@
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C115" s="1"/>
     </row>
@@ -8871,7 +8883,7 @@
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C166" s="1"/>
     </row>
@@ -9294,16 +9306,16 @@
         <v>4</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E218" s="11">
         <v>44695</v>
       </c>
       <c r="F218" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G218" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
@@ -9313,16 +9325,16 @@
         <v>5</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E219" s="11">
         <v>44695</v>
       </c>
       <c r="F219" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G219" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
@@ -9332,13 +9344,13 @@
         <v>6</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E220" s="11">
         <v>44695</v>
       </c>
       <c r="F220" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G220" s="9" t="s">
         <v>42</v>
@@ -9351,16 +9363,16 @@
         <v>7</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E221" s="11">
         <v>44695</v>
       </c>
       <c r="F221" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G221" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
@@ -9372,7 +9384,7 @@
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
       <c r="B223" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C223" s="1"/>
     </row>
@@ -9783,7 +9795,7 @@
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="2"/>
       <c r="B274" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C274" s="1"/>
     </row>
@@ -10194,7 +10206,7 @@
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" s="2"/>
       <c r="B325" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C325" s="1"/>
     </row>
@@ -10605,7 +10617,7 @@
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" s="2"/>
       <c r="B376" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C376" s="1"/>
     </row>
@@ -11016,7 +11028,7 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427" s="2"/>
       <c r="B427" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C427" s="1"/>
     </row>
@@ -11444,11 +11456,11 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1"/>
       <c r="H1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -11465,10 +11477,10 @@
         <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>0</v>
@@ -11483,10 +11495,10 @@
         <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -11754,16 +11766,16 @@
         <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K28" s="14">
         <v>45010</v>
       </c>
       <c r="L28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
@@ -11777,7 +11789,7 @@
         <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K29" s="14">
         <v>45024</v>
@@ -11786,7 +11798,7 @@
         <v>38</v>
       </c>
       <c r="M29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -11800,7 +11812,7 @@
         <v>6</v>
       </c>
       <c r="J30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K30" s="14">
         <v>45024</v>
@@ -11809,7 +11821,7 @@
         <v>38</v>
       </c>
       <c r="M30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -11823,7 +11835,7 @@
         <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K31" s="14">
         <v>45024</v>
@@ -11832,7 +11844,7 @@
         <v>38</v>
       </c>
       <c r="M31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -11849,16 +11861,16 @@
         <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D33" s="14">
         <v>44626</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>13</v>
@@ -11867,7 +11879,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K33" s="14">
         <v>44695</v>
@@ -11876,7 +11888,7 @@
         <v>38</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -11885,23 +11897,23 @@
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D34" s="14">
         <v>44626</v>
       </c>
       <c r="E34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K34" s="14">
         <v>44695</v>
@@ -11919,13 +11931,13 @@
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D35" s="14">
         <v>44626</v>
       </c>
       <c r="E35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>42</v>
@@ -11935,7 +11947,7 @@
         <v>6</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K35" s="14">
         <v>44695</v>
@@ -11944,7 +11956,7 @@
         <v>38</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -11953,23 +11965,23 @@
         <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D36" s="14">
         <v>44626</v>
       </c>
       <c r="E36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K36" s="14">
         <v>44695</v>
@@ -11978,7 +11990,7 @@
         <v>38</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -11995,7 +12007,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D38" s="14">
         <v>45024</v>
@@ -12004,7 +12016,7 @@
         <v>38</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>14</v>
@@ -12013,16 +12025,16 @@
         <v>4</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K38" s="14">
         <v>44695</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
@@ -12031,7 +12043,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D39" s="14">
         <v>45024</v>
@@ -12040,23 +12052,23 @@
         <v>38</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K39" s="14">
         <v>44695</v>
       </c>
       <c r="L39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
@@ -12065,7 +12077,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D40" s="14">
         <v>45024</v>
@@ -12074,23 +12086,23 @@
         <v>38</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K40" s="14">
         <v>44695</v>
       </c>
       <c r="L40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
@@ -12099,7 +12111,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D41" s="14">
         <v>45024</v>
@@ -12108,23 +12120,23 @@
         <v>38</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K41" s="14">
         <v>44695</v>
       </c>
       <c r="L41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -12198,16 +12210,16 @@
         <v>4</v>
       </c>
       <c r="J48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K48" s="14">
         <v>44695</v>
       </c>
       <c r="L48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
@@ -12221,14 +12233,14 @@
         <v>5</v>
       </c>
       <c r="J49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K49" s="14"/>
       <c r="L49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
@@ -12242,11 +12254,11 @@
         <v>6</v>
       </c>
       <c r="J50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K50" s="14"/>
       <c r="L50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M50" t="s">
         <v>41</v>
@@ -12263,14 +12275,14 @@
         <v>7</v>
       </c>
       <c r="J51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K51" s="14"/>
       <c r="L51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
@@ -12382,8 +12394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5966D34-AFDC-8D46-87F5-1A179AC4B902}">
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -12396,11 +12408,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1"/>
       <c r="I1" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1"/>
     </row>
@@ -12419,7 +12431,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>25</v>
@@ -12437,7 +12449,7 @@
         <v>30</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>25</v>
@@ -12837,16 +12849,16 @@
         <v>4</v>
       </c>
       <c r="K28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L28" s="14">
         <v>44962</v>
       </c>
       <c r="M28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -12864,16 +12876,16 @@
         <v>5</v>
       </c>
       <c r="K29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L29" s="14">
         <v>44962</v>
       </c>
       <c r="M29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -12891,16 +12903,16 @@
         <v>6</v>
       </c>
       <c r="K30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L30" s="14">
-        <v>44962</v>
+        <v>45165</v>
       </c>
       <c r="M30" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="N30" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -12918,16 +12930,16 @@
         <v>7</v>
       </c>
       <c r="K31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L31" s="14">
         <v>44962</v>
       </c>
       <c r="M31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N31" t="s">
-        <v>63</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -12941,7 +12953,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>11</v>
@@ -12960,7 +12972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
@@ -12975,7 +12987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
@@ -12989,8 +13001,20 @@
       <c r="J35" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K35" t="s">
+        <v>195</v>
+      </c>
+      <c r="L35" t="s">
+        <v>196</v>
+      </c>
+      <c r="M35" t="s">
+        <v>192</v>
+      </c>
+      <c r="N35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
@@ -13005,7 +13029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -13016,7 +13040,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
         <v>12</v>
@@ -13035,7 +13059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
@@ -13050,7 +13074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
@@ -13065,7 +13089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
@@ -13080,7 +13104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -13091,7 +13115,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>13</v>
@@ -13110,7 +13134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
@@ -13125,7 +13149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
@@ -13140,7 +13164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
@@ -13155,7 +13179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -13166,7 +13190,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>32</v>
@@ -13288,16 +13312,16 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E58" s="14">
         <v>44962</v>
       </c>
       <c r="F58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G58" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I58" t="s">
         <v>34</v>
@@ -13311,14 +13335,14 @@
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" t="s">
         <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>5</v>
@@ -13329,11 +13353,11 @@
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E60" s="14"/>
       <c r="G60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>6</v>
@@ -13344,11 +13368,11 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E61" s="14"/>
       <c r="G61" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>7</v>
@@ -14146,16 +14170,16 @@
         <v>4</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E28" s="14">
         <v>45177</v>
       </c>
       <c r="F28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -14165,16 +14189,16 @@
         <v>5</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E29" s="14">
         <v>45177</v>
       </c>
       <c r="F29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -14208,7 +14232,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E33" s="14">
         <v>44695</v>
@@ -14217,7 +14241,7 @@
         <v>38</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -14227,7 +14251,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E34" s="14">
         <v>44695</v>
@@ -14236,7 +14260,7 @@
         <v>38</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -14246,7 +14270,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E35" s="14">
         <v>44695</v>
@@ -14255,7 +14279,7 @@
         <v>38</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -14265,7 +14289,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E36" s="14">
         <v>44695</v>
@@ -14274,7 +14298,7 @@
         <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -14372,16 +14396,16 @@
         <v>4</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E48" s="14">
         <v>45010</v>
       </c>
       <c r="F48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -14391,16 +14415,16 @@
         <v>5</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E49" s="14">
         <v>45010</v>
       </c>
       <c r="F49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -14410,16 +14434,16 @@
         <v>6</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E50" s="14">
         <v>45010</v>
       </c>
       <c r="F50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -14429,16 +14453,16 @@
         <v>7</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E51" s="14">
         <v>45010</v>
       </c>
       <c r="F51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -15198,7 +15222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22797B1-D157-4F23-BC29-DEA3C11849AE}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -15404,16 +15428,16 @@
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E18" s="13">
         <v>44962</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -15434,16 +15458,16 @@
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E20" s="13">
         <v>44962</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -15695,16 +15719,16 @@
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E43" s="13">
         <v>44877</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -15714,16 +15738,16 @@
         <v>5</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E44" s="13">
         <v>44877</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -15733,16 +15757,16 @@
         <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E45" s="13">
         <v>44877</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -15752,16 +15776,16 @@
         <v>7</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E46" s="13">
         <v>44877</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
